--- a/Content/Tyre/tyre.xlsx
+++ b/Content/Tyre/tyre.xlsx
@@ -14,187 +14,176 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
-  <si>
-    <t>BKT</t>
-  </si>
-  <si>
-    <t>Good Year</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
+  <si>
+    <t>Birla</t>
+  </si>
+  <si>
+    <t>JK</t>
   </si>
   <si>
     <t>Apollo</t>
   </si>
   <si>
-    <t>BKT COMMANDER 6.50 X 16</t>
-  </si>
-  <si>
-    <t>Good Year Vajra Super 6.50 X 16</t>
-  </si>
-  <si>
-    <t>Apollo Krishak Premium - CR 6.00 X 16</t>
-  </si>
-  <si>
-    <t>Apollo Krishak Premium - Steer 6.00 X 16</t>
-  </si>
-  <si>
-    <t>BKT COMMANDER 6.00 X 16</t>
-  </si>
-  <si>
-    <t>Good Year Vajra Super 6.00 X 16</t>
-  </si>
-  <si>
-    <t>['img0-commander-6-50-x-16-1656917249-0.png']</t>
-  </si>
-  <si>
-    <t>['img0-vajra-super-1582970728-0.png']</t>
-  </si>
-  <si>
-    <t>['img0-krishak-premium-cr-6-00-x-16-1656999273-0.png']</t>
-  </si>
-  <si>
-    <t>['img0-krishak-premium-steer-6-00-x-16-1656999136-0.png']</t>
-  </si>
-  <si>
-    <t>['img0-commander-6-00-x-16-1656917276-0.png']</t>
-  </si>
-  <si>
-    <t>['img0-vajra-super-1582970693-0.png']</t>
+    <t>Birla Shaan+ 12.4 X 28</t>
+  </si>
+  <si>
+    <t>JK Agrigold 420/85 X 28</t>
+  </si>
+  <si>
+    <t>Apollo FARMKING 340/85 X 28</t>
+  </si>
+  <si>
+    <t>JK Agrigold 340/85 X 28</t>
+  </si>
+  <si>
+    <t>Apollo FARMKING 12.4 X 28</t>
+  </si>
+  <si>
+    <t>['Birla Shaan+ 12.4 X 28img0-shaan-12-4-x-28-1656312765-0.png']</t>
+  </si>
+  <si>
+    <t>['J.png']</t>
+  </si>
+  <si>
+    <t>['A.png']</t>
+  </si>
+  <si>
+    <t>['Apollo FARMKING 12.4 X 28img0-farmking-12-4-x-28-1655192063-0.png', 'Apollo FARMKING 12.4 X 28img1-farmking-12-4-x-28-1655191703-1.png', 'Apollo FARMKING 12.4 X 28img2-farmking-12-4-x-28-1655192063-0.png']</t>
   </si>
   <si>
     <t>Category - Tractor</t>
   </si>
   <si>
-    <t>Front Tyre</t>
-  </si>
-  <si>
-    <t>770</t>
-  </si>
-  <si>
-    <t>748</t>
-  </si>
-  <si>
-    <t>747</t>
-  </si>
-  <si>
-    <t>745</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>BKT COMMANDER 6.50 X 16 Tractor Tyre - Overview
-Are You Looking for COMMANDER Tractor Tyre?
-That’s Great, and here we are shown all about BKT COMMANDER 6.50 X 16(s). In this page, you get all the features and price of BKT COMMANDER 6.50 X 16(s).
-Following are the features of BKT COMMANDER 6.50 X 16(s). Let’s check.
-It comes with a size 6.50 X 16, and it is a Tractor tyre.
-COMMANDER provides smooth performance on the field.
-BKT COMMANDER 6.50 X 16(s) offers perfect grip with the ground.
-This BKT Tractor was manufactured with puncture resistance technology.
-Along with this, COMMANDER has 770 diameter and 183 widths.
-BKT COMMANDER 6.50 X 16(s) price is convenient for the farmers.
-BKT Tractor Tyres COMMANDER 6.50 X 16(s) price fixed according to the requirement of the farmers. They can easily afford COMMANDER 6.50 X 16(s).
-COMMANDER (F) is a front 3-rib pattern tire with shoulder notches providing excellent grip. Its deep tread made of a puncture-resistant compound ensures a longer tire life. The strong casing along with the superior tread compound makes COMMANDER (F) a tough tire for rough conditions. The flatter tread profile provides a uniform load distribution.
-For more information regarding BKT Tractor Tyres COMMANDER 6.50 X 16(s) price in India, stay tuned with TractorJunction. Here you can also get updated Tractor Tyre COMMANDER 6.50 X 16(s) price BKT.
+    <t>Rear Tyre</t>
+  </si>
+  <si>
+    <t>Not Available</t>
+  </si>
+  <si>
+    <t>1300</t>
+  </si>
+  <si>
+    <t>1284</t>
+  </si>
+  <si>
+    <t>356</t>
+  </si>
+  <si>
+    <t>334</t>
+  </si>
+  <si>
+    <t>Birla Shaan+ 12.4 X 28 Tractor Tyre - Overview
+Are You Looking for Shaan+ Tractor Tyre?
+That’s Great, and here we are shown all about Birla Shaan+ 12.4 X 28(s). In this page, you get all the features and price of Birla Shaan+ 12.4 X 28(s).
+Following are the features of Birla Shaan+ 12.4 X 28(s). Let’s check.
+It comes with a size 12.4 X 28, and it is a Tractor tyre.
+Shaan+ provides smooth performance on the field.
+Birla Shaan+ 12.4 X 28(s) offers perfect grip with the ground.
+This Birla Tractor was manufactured with puncher resistance technology.
+Along with this, Shaan+ has diameter and widths.
+Birla Shaan+ 12.4 X 28(s) price is convenient for the farmers.
+Birla Tractor Tyres Shaan+ 12.4 X 28(s) price fixed according to the requirement of the farmers. They can easily afford Shaan+ 12.4 X 28(s).
+Features :
+Superior lug design ensures maximum traction &amp; reduced stubble penetration
+Suitable for both haulage &amp; agriculture
+Better tyre floatation &amp; less soil compaction
+Cut resistant tread compound ensures longer life
+Smooth channel for self cleaning
+For more information regarding Birla Tractor Tyres Shaan+ 12.4 X 28(s) price in India, stay tuned with TractorJunction. Here you can also get updated Tractor Tyre Shaan+ 12.4 X 28(s) price Birla.
 Related Search:
-BKT Tractor Tyre Price COMMANDER 6.50 X 16(s)</t>
-  </si>
-  <si>
-    <t>Good Year Vajra Super 6.50 X 16 Tractor Tyre - Overview
-Are You Looking for Vajra Super Tractor Tyre?
-That’s Great, and here we are shown all about Good Year Vajra Super 6.50 X 16(s). In this page, you get all the features and price of Good Year Vajra Super 6.50 X 16(s).
-Following are the features of Good Year Vajra Super 6.50 X 16(s). Let’s check.
-It comes with a size 6.50 X 16, and it is a Tractor tyre.
-Vajra Super provides smooth performance on the field.
-Good Year Vajra Super 6.50 X 16(s) offers perfect grip with the ground.
-This Good Year Tractor was manufactured with puncher resistance technology.
-Along with this, Vajra Super has 770 diameter and 183 widths.
-Good Year Vajra Super 6.50 X 16(s) price is convenient for the farmers.
-Good Year Tractor Tyres Vajra Super 6.50 X 16(s) price fixed according to the requirement of the farmers. They can easily afford Vajra Super 6.50 X 16(s).
-For more information regarding Good Year Tractor Tyres Vajra Super 6.50 X 16(s) price in India, stay tuned with TractorJunction. Here you can also get updated Tractor Tyre Vajra Super 6.50 X 16(s) price Good Year.
+Birla Tractor Tyre Price Shaan+ 12.4 X 28(s)</t>
+  </si>
+  <si>
+    <t>JK Agrigold 420/85 X 28 Tractor Tyre - Overview
+Are You Looking for Agrigold Tractor Tyre?
+That’s Great, and here we are shown all about JK Agrigold 420/85 X 28(s). In this page, you get all the features and price of JK Agrigold 420/85 X 28(s).
+Following are the features of JK Agrigold 420/85 X 28(s). Let’s check.
+It comes with a size 420/85 X 28, and it is a Tractor tyre.
+Agrigold provides smooth performance on the field.
+JK Agrigold 420/85 X 28(s) offers perfect grip with the ground.
+This JK Tractor was manufactured with puncher resistance technology.
+Along with this, Agrigold has diameter and widths.
+JK Agrigold 420/85 X 28(s) price is convenient for the farmers.
+JK Tractor Tyres Agrigold 420/85 X 28(s) price fixed according to the requirement of the farmers. They can easily afford Agrigold 420/85 X 28(s).
+JK Agrigold 420/85 X 28(s) Features:
+Steel belted radial construction
+Maximum tread depth 
+Extremely strong casing
+Wider footprint with broader lugs
+JK Agrigold 420/85 X 28(s) Benefits
+Best Puncture Protection
+Better stability and grip
+High fuel efficiency
+Smooth ride with less slippage
+For more information regarding JK Tractor Tyres Agrigold 420/85 X 28(s) price in India, stay tuned with TractorJunction. Here you can also get updated Tractor Tyre Agrigold 420/85 X 28(s) price JK.
 Related Search:
-Good Year Tractor Tyre Price Vajra Super 6.50 X 16(s)</t>
-  </si>
-  <si>
-    <t>Apollo Krishak Premium - CR 6.00 X 16 Tractor Tyre - Overview
-Are You Looking for Krishak Premium - CR Tractor Tyre?
-That’s Great, and here we are shown all about Apollo Krishak Premium - CR 6.00 X 16(s). In this page, you get all the features and price of Apollo Krishak Premium - CR 6.00 X 16(s).
-Following are the features of Apollo Krishak Premium - CR 6.00 X 16(s). Let’s check.
-It comes with a size 6.00 X 16, and it is a Tractor tyre.
-Krishak Premium - CR provides smooth performance on the field.
-Apollo Krishak Premium - CR 6.00 X 16(s) offers perfect grip with the ground.
+JK Tractor Tyre Price Agrigold 420/85 X 28(s)</t>
+  </si>
+  <si>
+    <t>Apollo FARMKING 340/85 X 28 Tractor Tyre - Overview
+Are You Looking for FARMKING Tractor Tyre?
+That’s Great, and here we are shown all about Apollo FARMKING 340/85 X 28(s). In this page, you get all the features and price of Apollo FARMKING 340/85 X 28(s).
+Following are the features of Apollo FARMKING 340/85 X 28(s). Let’s check.
+It comes with a size 340/85 X 28, and it is a Tractor tyre.
+FARMKING provides smooth performance on the field.
+Apollo FARMKING 340/85 X 28(s) offers perfect grip with the ground.
 This Apollo Tractor was manufactured with puncher resistance technology.
-Along with this, Krishak Premium - CR has 748 diameter and 173 widths.
-Apollo Krishak Premium - CR 6.00 X 16(s) price is convenient for the farmers.
-Apollo Tractor Tyres Krishak Premium - CR 6.00 X 16(s) price fixed according to the requirement of the farmers. They can easily afford Krishak Premium - CR 6.00 X 16(s).
-For more information regarding Apollo Tractor Tyres Krishak Premium - CR 6.00 X 16(s) price in India, stay tuned with TractorJunction. Here you can also get updated Tractor Tyre Krishak Premium - CR 6.00 X 16(s) price Apollo.
-Apollo Krishak Premium - CR 6.00 X 16(s) Specification
-Continous 3 RIB Pattern : Smooth Steer Performance In On - Road Applications
-Superior Compound : Long Tyre Life.
-Strong Casing : Puncture Resistance And High Retreadibility.
+Along with this, FARMKING has 1300 diameter and 356 widths.
+Apollo FARMKING 340/85 X 28(s) price is convenient for the farmers.
+Apollo Tractor Tyres FARMKING 340/85 X 28(s) price fixed according to the requirement of the farmers. They can easily afford FARMKING 340/85 X 28(s).
+For more information regarding Apollo Tractor Tyres FARMKING 340/85 X 28(s) price in India, stay tuned with TractorJunction. Here you can also get updated Tractor Tyre FARMKING 340/85 X 28(s) price Apollo.
+FARMKING 340/85 X 28(s) Features
+Wider Foot Print- Improved Grip Performance, Excellent Fuel Efficiency &amp; Lesser Soil Compaction
+Flexing sidewall- Reduced Lateral Vibrations &amp; Provides High Riding Comfort
+Radial Construction &amp; compound-1.5 Times Longer Life
 Related Search:
-Apollo Tractor Tyre Price Krishak Premium - CR 6.00 X 16(s)</t>
-  </si>
-  <si>
-    <t>Apollo Krishak Premium - Steer 6.00 X 16 Tractor Tyre - Overview
-Are You Looking for Krishak Premium - Steer Tractor Tyre?
-That’s Great, and here we are shown all about Apollo Krishak Premium - Steer 6.00 X 16(s). In this page, you get all the features and price of Apollo Krishak Premium - Steer 6.00 X 16(s).
-Following are the features of Apollo Krishak Premium - Steer 6.00 X 16(s). Let’s check.
-It comes with a size 6.00 X 16, and it is a Tractor tyre.
-Krishak Premium - Steer provides smooth performance on the field.
-Apollo Krishak Premium - Steer 6.00 X 16(s) offers perfect grip with the ground.
+Apollo Tractor Tyre Price FARMKING 340/85 X 28(s)</t>
+  </si>
+  <si>
+    <t>JK Agrigold 340/85 X 28 Tractor Tyre - Overview
+Are You Looking for Agrigold Tractor Tyre?
+That’s Great, and here we are shown all about JK Agrigold 340/85 X 28(s). In this page, you get all the features and price of JK Agrigold 340/85 X 28(s).
+Following are the features of JK Agrigold 340/85 X 28(s). Let’s check.
+It comes with a size 340/85 X 28, and it is a Tractor tyre.
+Agrigold provides smooth performance on the field.
+JK Agrigold 340/85 X 28(s) offers perfect grip with the ground.
+This JK Tractor was manufactured with puncher resistance technology.
+Along with this, Agrigold has diameter and widths.
+JK Agrigold 340/85 X 28(s) price is convenient for the farmers.
+JK Tractor Tyres Agrigold 340/85 X 28(s) price fixed according to the requirement of the farmers. They can easily afford Agrigold 340/85 X 28(s).
+JK Agrigold 340/85 X 28(s) Features:
+Steel belted radial construction
+Maximum tread depth 
+Extremely strong casing
+Wider footprint with broader lugs
+JK Agrigold 340/85 X 28(s) Benefits
+Best Puncture Protection
+Better stability and grip
+High fuel efficiency
+Smooth ride with less slippage
+For more information regarding JK Tractor Tyres Agrigold 340/85 X 28(s) price in India, stay tuned with TractorJunction. Here you can also get updated Tractor Tyre Agrigold 340/85 X 28(s) price JK.
+Related Search:
+JK Tractor Tyre Price Agrigold 340/85 X 28(s)</t>
+  </si>
+  <si>
+    <t>Apollo FARMKING 12.4 X 28 Tractor Tyre - Overview
+Are You Looking for FARMKING Tractor Tyre?
+That’s Great, and here we are shown all about Apollo FARMKING 12.4 X 28(s). In this page, you get all the features and price of Apollo FARMKING 12.4 X 28(s).
+Following are the features of Apollo FARMKING 12.4 X 28(s). Let’s check.
+It comes with a size 12.4 X 28, and it is a Tractor tyre.
+FARMKING provides smooth performance on the field.
+Apollo FARMKING 12.4 X 28(s) offers perfect grip with the ground.
 This Apollo Tractor was manufactured with puncher resistance technology.
-Along with this, Krishak Premium - Steer has 747 diameter and 174 widths.
-Apollo Krishak Premium - Steer 6.00 X 16(s) price is convenient for the farmers.
-Apollo Tractor Tyres Krishak Premium - Steer 6.00 X 16(s) price fixed according to the requirement of the farmers. They can easily afford Krishak Premium - Steer 6.00 X 16(s).
-For more information regarding Apollo Tractor Tyres Krishak Premium - Steer 6.00 X 16(s) price in India, stay tuned with TractorJunction. Here you can also get updated Tractor Tyre Krishak Premium - Steer 6.00 X 16(s) price Apollo.
-Apollo Krishak Premium - Steer 6.00 X 16(s) Specification
-Superior compound : Long Tyre Life.
-Strong Casing : Better Self-Cleaning Improved Ground Traction.
-Penta head centre mass : Better Mileage Enduring Haulage Application.
+Along with this, FARMKING has 1284 diameter and 334 widths.
+Apollo FARMKING 12.4 X 28(s) price is convenient for the farmers.
+Apollo Tractor Tyres FARMKING 12.4 X 28(s) price fixed according to the requirement of the farmers. They can easily afford FARMKING 12.4 X 28(s).
+For more information regarding Apollo Tractor Tyres FARMKING 12.4 X 28(s) price in India, stay tuned with TractorJunction. Here you can also get updated Tractor Tyre FARMKING 12.4 X 28(s) price Apollo.
+Wider Foot Print- Improved Grip Performance, Excellent Fuel Efficiency &amp; Lesser Soil Compaction
+Flexing sidewall- Reduced Lateral Vibrations &amp; Provides High Riding Comfort
+Radial Construction &amp; compound-1.5 Times Longer Life
 Related Search:
-Apollo Tractor Tyre Price Krishak Premium - Steer 6.00 X 16(s)</t>
-  </si>
-  <si>
-    <t>BKT COMMANDER 6.00 X 16 Tractor Tyre - Overview
-Are You Looking for COMMANDER Tractor Tyre?
-That’s Great, and here we are shown all about BKT COMMANDER 6.00 X 16(s). In this page, you get all the features and price of BKT COMMANDER 6.00 X 16(s).
-Following are the features of BKT COMMANDER 6.00 X 16(s). Let’s check.
-It comes with a size 6.00 X 16, and it is a Tractor tyre.
-COMMANDER provides smooth performance on the field.
-BKT COMMANDER 6.00 X 16(s) offers perfect grip with the ground.
-This BKT Tractor was manufactured with puncture resistance technology.
-Along with this, COMMANDER has 745 diameter and 170 widths.
-BKT COMMANDER 6.00 X 16(s) price is convenient for the farmers.
-BKT Tractor Tyres COMMANDER 6.00 X 16(s) price fixed according to the requirement of the farmers. They can easily afford COMMANDER 6.00 X 16(s).
-COMMANDER (F) is a front 3-rib pattern tire with shoulder notches providing excellent grip. Its deep tread made of a puncture-resistant compound ensures a longer tire life. The strong casing along with the superior tread compound makes COMMANDER (F) a tough tire for rough conditions. The flatter tread profile provides a uniform load distribution.
-For more information regarding BKT Tractor Tyres COMMANDER 6.00 X 16(s) price in India, stay tuned with TractorJunction. Here you can also get updated Tractor Tyre COMMANDER 6.00 X 16(s) price BKT.
-Related Search:
-BKT Tractor Tyre Price COMMANDER 6.00 X 16(s)</t>
-  </si>
-  <si>
-    <t>Good Year Vajra Super 6.00 X 16 Tractor Tyre - Overview
-Are You Looking for Vajra Super Tractor Tyre?
-That’s Great, and here we are shown all about Good Year Vajra Super 6.00 X 16(s). In this page, you get all the features and price of Good Year Vajra Super 6.00 X 16(s).
-Following are the features of Good Year Vajra Super 6.00 X 16(s). Let’s check.
-It comes with a size 6.00 X 16, and it is a Tractor tyre.
-Vajra Super provides smooth performance on the field.
-Good Year Vajra Super 6.00 X 16(s) offers perfect grip with the ground.
-This Good Year Tractor was manufactured with puncher resistance technology.
-Along with this, Vajra Super has 745 diameter and 170 widths.
-Good Year Vajra Super 6.00 X 16(s) price is convenient for the farmers.
-Good Year Tractor Tyres Vajra Super 6.00 X 16(s) price fixed according to the requirement of the farmers. They can easily afford Vajra Super 6.00 X 16(s).
-For more information regarding Good Year Tractor Tyres Vajra Super 6.00 X 16(s) price in India, stay tuned with TractorJunction. Here you can also get updated Tractor Tyre Vajra Super 6.00 X 16(s) price Good Year.
-Related Search:
-Good Year Tractor Tyre Price Vajra Super 6.00 X 16(s)</t>
+Apollo Tractor Tyre Price FARMKING 12.4 X 28(s)</t>
   </si>
   <si>
     <t>product</t>
@@ -580,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -588,31 +577,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -623,25 +612,25 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -652,22 +641,22 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -678,100 +667,74 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
